--- a/Excel2Json/Test/dialog.xlsx
+++ b/Excel2Json/Test/dialog.xlsx
@@ -393,18 +393,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="111">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -629,14 +621,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>104|1|1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,6 +810,22 @@
   </si>
   <si>
     <t>task10003_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;string;32&gt;;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1341,307 +1341,307 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -1652,28 +1652,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1"/>
       <c r="N5" s="1"/>
@@ -1690,28 +1690,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
@@ -1728,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1">
         <v>2000</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1">
         <v>2000</v>
@@ -1774,34 +1774,34 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
@@ -1817,46 +1817,46 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R10" s="1"/>
       <c r="T10" s="1"/>
@@ -1870,40 +1870,40 @@
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P11" s="1"/>
       <c r="R11" s="1"/>
@@ -1918,46 +1918,46 @@
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R12" s="1"/>
       <c r="T12" s="1"/>
@@ -1971,16 +1971,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
